--- a/medicine/Pharmacie/Élixir_parégorique/Élixir_parégorique.xlsx
+++ b/medicine/Pharmacie/Élixir_parégorique/Élixir_parégorique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lixir_par%C3%A9gorique</t>
+          <t>Élixir_parégorique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Élixir parégorique est un ancien médicament antidiarrhéique à base d'opium, dénommé également teinture d'opium benzoïque ou teinture d'opium camphrée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lixir_par%C3%A9gorique</t>
+          <t>Élixir_parégorique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Action antidiarrhéique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antidiarrhéiques morphiniques diminuent les sécrétions digestives, ce qui ralentit le transit et constitue un traitement palliatif des diarrhées aiguës et chroniques. Ils ne dispensent pas d'un traitement étiologique éventuel : anti-infectieux, antifongique. 
 Actuellement, la poudre d'opium est remplacée par des morphiniques de synthèse, dérivés de la phényl-pipéridine, que sont le diphénoxylate et le lopéramide, à ne pas prescrire avant l'âge de deux ans.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lixir_par%C3%A9gorique</t>
+          <t>Élixir_parégorique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Sevrage du nourrisson de mère dépendante aux opiacés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'élixir parégorique  est également utilisé dans cette indication, lorsqu'il s'agit de proposer un sevrage progressif au bébé nouveau-né de mère dépendante aux opiacés. Différents protocoles de décroissance des doses sur quelques jours existent[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élixir parégorique  est également utilisé dans cette indication, lorsqu'il s'agit de proposer un sevrage progressif au bébé nouveau-né de mère dépendante aux opiacés. Différents protocoles de décroissance des doses sur quelques jours existent.
 </t>
         </is>
       </c>
